--- a/biology/Zoologie/Caluromysiops_irrupta/Caluromysiops_irrupta.xlsx
+++ b/biology/Zoologie/Caluromysiops_irrupta/Caluromysiops_irrupta.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Opossum à épaules noires
-L'Opossum à épaules noires[2] (Caluromysiops irrupta) est une espèce de marsupiaux de la famille des Didelphidae. Cet opossum est l'unique représentant du genre Caluromysiops.
+L'Opossum à épaules noires (Caluromysiops irrupta) est une espèce de marsupiaux de la famille des Didelphidae. Cet opossum est l'unique représentant du genre Caluromysiops.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Une large raie noire caractérise cet opossum à la fourrure laineuse. D'une Longueur de 21 à 26 cm, il se nourrit de fruits et de vers qu'il cherche la nuit dans les arbres. Sa queue grise, touffue sur le dessus et nue en dessous, se termine par des poils blancs. La gestation dure de treize à quatorze jours et il y a 2 petits par portée. Il vit généralement pendant 7 ans.
 </t>
@@ -543,10 +557,12 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il vit en Amérique du Sud : dans le sud-est du Pérou, dans l'ouest du Brésil et en Bolivie à une altitude de 700 m[3].
-Il réside dans la forêt tropicale humide. C'est une espèce arboricole[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vit en Amérique du Sud : dans le sud-est du Pérou, dans l'ouest du Brésil et en Bolivie à une altitude de 700 m.
+Il réside dans la forêt tropicale humide. C'est une espèce arboricole.
 </t>
         </is>
       </c>
